--- a/SS_Experiment_Output/PSAT_results.xlsx
+++ b/SS_Experiment_Output/PSAT_results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kai Pederson\Documents\MATLAB\Satellite\Satellite\Project\SS_Experiment_Output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78655D58-9787-4B26-9713-9099DE2C2B85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BEB0561-4A22-44FA-97DB-0109536087EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{4C26C3E7-F3D7-487B-BFC2-E9E4FBC2D060}"/>
+    <workbookView xWindow="-28920" yWindow="8250" windowWidth="29040" windowHeight="15840" xr2:uid="{4C26C3E7-F3D7-487B-BFC2-E9E4FBC2D060}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="18">
   <si>
     <t>START</t>
   </si>
@@ -42,9 +42,6 @@
     <t>END</t>
   </si>
   <si>
-    <t>Error ("-" = early)</t>
-  </si>
-  <si>
     <t>3 Months Old</t>
   </si>
   <si>
@@ -72,20 +69,32 @@
     <t>Elevation Angle</t>
   </si>
   <si>
-    <t>Current TLE CAS-6</t>
-  </si>
-  <si>
     <t xml:space="preserve">Window Length 1 </t>
   </si>
   <si>
     <t>Window Length 2</t>
+  </si>
+  <si>
+    <t>Error 1 ("-" = early)</t>
+  </si>
+  <si>
+    <t>Error 2 ("-" = early)</t>
+  </si>
+  <si>
+    <t>Error 3 ("-" = early)</t>
+  </si>
+  <si>
+    <t>Current TLE PSAT</t>
+  </si>
+  <si>
+    <t>Window Length 3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -150,8 +159,16 @@
       <name val="Verdana"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -191,8 +208,13 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -200,12 +222,28 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -213,16 +251,17 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="22" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="19" fontId="4" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="1" xfId="4"/>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="5">
     <cellStyle name="Bad" xfId="3" builtinId="27"/>
+    <cellStyle name="Check Cell" xfId="4" builtinId="23"/>
     <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Neutral" xfId="2" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -544,8 +583,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{422472CC-0320-4F97-90B0-733A9858B3B3}">
   <dimension ref="A1:O35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E42" sqref="E42"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2:O31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.6328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -553,16 +592,18 @@
     <col min="2" max="7" width="18.453125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="20.453125" customWidth="1"/>
     <col min="10" max="10" width="17.453125" customWidth="1"/>
+    <col min="11" max="11" width="19.08984375" customWidth="1"/>
     <col min="13" max="13" width="18.26953125" customWidth="1"/>
     <col min="14" max="14" width="18.54296875" customWidth="1"/>
+    <col min="15" max="15" width="18.26953125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="8">
+      <c r="A1" s="7">
         <v>98.3</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -595,62 +636,66 @@
       </c>
       <c r="H2" s="1"/>
       <c r="I2" s="3" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>2</v>
+        <v>14</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>15</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="N2" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="O2" s="4" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="9">
+        <v>6</v>
+      </c>
+      <c r="B3" s="8">
         <v>44454.359664351854</v>
       </c>
-      <c r="C3" s="9">
+      <c r="C3" s="8">
         <v>44454.361342592594</v>
       </c>
-      <c r="D3" s="9">
+      <c r="D3" s="8">
         <v>44454.426736111112</v>
       </c>
-      <c r="E3" s="9">
+      <c r="E3" s="8">
         <v>44454.42800925926</v>
       </c>
-      <c r="F3" s="9">
+      <c r="F3" s="8">
         <v>44454.91747685185</v>
       </c>
-      <c r="G3" s="9">
+      <c r="G3" s="8">
         <v>44454.920543981483</v>
       </c>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
-      <c r="M3" s="6" t="str">
+      <c r="K3" s="1"/>
+      <c r="M3" s="5" t="str">
         <f>TEXT(C3-B3,"h:mm:ss")</f>
         <v>0:02:25</v>
       </c>
-      <c r="N3" s="6" t="str">
+      <c r="N3" s="5" t="str">
         <f>TEXT(E3-D3,"h:mm:ss")</f>
         <v>0:01:50</v>
       </c>
-      <c r="O3" s="6" t="str">
+      <c r="O3" s="5" t="str">
         <f>TEXT(G3-F3,"h:mm:ss")</f>
         <v>0:04:25</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B4">
         <v>41.493024900000002</v>
@@ -673,10 +718,11 @@
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
     </row>
     <row r="5" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B5">
         <v>-76.903715680000005</v>
@@ -699,10 +745,11 @@
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
     </row>
     <row r="6" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B6">
         <v>637326.1152</v>
@@ -725,10 +772,11 @@
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
     </row>
     <row r="7" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B7">
         <v>25.396799999999999</v>
@@ -751,11 +799,12 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
     </row>
     <row r="8" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A8" s="1"/>
       <c r="B8" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -765,6 +814,7 @@
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
     </row>
     <row r="9" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A9" s="1"/>
@@ -789,63 +839,68 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
       <c r="M9" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="N9" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="O9" s="4" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="9">
+        <v>6</v>
+      </c>
+      <c r="B10" s="8">
         <v>44454.359953703701</v>
       </c>
-      <c r="C10" s="9">
+      <c r="C10" s="8">
         <v>44454.361747685187</v>
       </c>
-      <c r="D10" s="9">
+      <c r="D10" s="8">
         <v>44454.427199074074</v>
       </c>
-      <c r="E10" s="9">
+      <c r="E10" s="8">
         <v>44454.428298611114</v>
       </c>
-      <c r="F10" s="9">
+      <c r="F10" s="8">
         <v>44454.917824074073</v>
       </c>
-      <c r="G10" s="9">
+      <c r="G10" s="8">
         <v>44454.920891203707</v>
       </c>
       <c r="H10" s="1"/>
-      <c r="I10" s="7" t="str">
+      <c r="I10" s="6" t="str">
         <f>IF(B3-B10&lt;0,(TEXT(ABS(B3-B10),"h:mm:ss")),(_xlfn.CONCAT("-",TEXT(B3-B10,"h:mm:ss"))))</f>
         <v>0:00:25</v>
       </c>
-      <c r="J10" s="7" t="str">
-        <f>IF(D3-D10&lt;0,(TEXT(ABS(D3-D10),"h:mm:ss")),(_xlfn.CONCAT("-",TEXT(C3-C10,"h:mm:ss"))))</f>
+      <c r="J10" s="6" t="str">
+        <f>IF(D3-D10&lt;0,(TEXT(ABS(D3-D10),"h:mm:ss")),(_xlfn.CONCAT("-",TEXT(D3-D10,"h:mm:ss"))))</f>
         <v>0:00:40</v>
       </c>
-      <c r="M10" s="6" t="str">
+      <c r="K10" s="6" t="str">
+        <f>IF(F3-F10&lt;0,(TEXT(ABS(F3-F10),"h:mm:ss")),(_xlfn.CONCAT("-",TEXT(F3-F10,"h:mm:ss"))))</f>
+        <v>0:00:30</v>
+      </c>
+      <c r="M10" s="5" t="str">
         <f>TEXT(C10-B10,"h:mm:ss")</f>
         <v>0:02:35</v>
       </c>
-      <c r="N10" s="6" t="str">
+      <c r="N10" s="5" t="str">
         <f>TEXT(E10-D10,"h:mm:ss")</f>
         <v>0:01:35</v>
       </c>
-      <c r="O10" s="6" t="str">
+      <c r="O10" s="5" t="str">
         <f>TEXT(G10-F10,"h:mm:ss")</f>
         <v>0:04:25</v>
       </c>
     </row>
     <row r="11" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B11">
         <v>41.073534649999999</v>
@@ -871,7 +926,7 @@
     </row>
     <row r="12" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B12">
         <v>-76.952914509999999</v>
@@ -897,7 +952,7 @@
     </row>
     <row r="13" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B13">
         <v>638086.73179999995</v>
@@ -923,7 +978,7 @@
     </row>
     <row r="14" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B14">
         <v>25.1951</v>
@@ -950,7 +1005,7 @@
     <row r="15" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A15" s="1"/>
       <c r="B15" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
@@ -985,62 +1040,66 @@
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
       <c r="M16" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="N16" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="O16" s="4" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B17" s="9">
+        <v>6</v>
+      </c>
+      <c r="B17" s="8">
         <v>44454.358854166669</v>
       </c>
-      <c r="C17" s="9">
+      <c r="C17" s="8">
         <v>44454.360590277778</v>
       </c>
-      <c r="D17" s="9">
+      <c r="D17" s="8">
         <v>44454.425925925927</v>
       </c>
-      <c r="E17" s="9">
+      <c r="E17" s="8">
         <v>44454.427199074074</v>
       </c>
-      <c r="F17" s="9">
+      <c r="F17" s="8">
         <v>44454.916666666664</v>
       </c>
-      <c r="G17" s="9">
+      <c r="G17" s="8">
         <v>44454.919733796298</v>
       </c>
       <c r="H17" s="1"/>
-      <c r="I17" s="7" t="str">
+      <c r="I17" s="6" t="str">
         <f>IF(B3-B17&lt;0,(TEXT(ABS(B3-B17),"h:mm:ss")),(_xlfn.CONCAT("-",TEXT(B3-B17,"h:mm:ss"))))</f>
         <v>-0:01:10</v>
       </c>
-      <c r="J17" s="7" t="str">
-        <f>IF(D3-D17&lt;0,(TEXT(ABS(D3-D17),"h:mm:ss")),(_xlfn.CONCAT("-",TEXT(C3-C17,"h:mm:ss"))))</f>
-        <v>-0:01:05</v>
-      </c>
-      <c r="M17" s="6" t="str">
+      <c r="J17" s="6" t="str">
+        <f>IF(D3-D17&lt;0,(TEXT(ABS(D3-D17),"h:mm:ss")),(_xlfn.CONCAT("-",TEXT(D3-D17,"h:mm:ss"))))</f>
+        <v>-0:01:10</v>
+      </c>
+      <c r="K17" s="6" t="str">
+        <f>IF(F3-F17&lt;0,(TEXT(ABS(F3-F17),"h:mm:ss")),(_xlfn.CONCAT("-",TEXT(F3-F17,"h:mm:ss"))))</f>
+        <v>-0:01:10</v>
+      </c>
+      <c r="M17" s="5" t="str">
         <f>TEXT(C17-B17,"h:mm:ss")</f>
         <v>0:02:30</v>
       </c>
-      <c r="N17" s="6" t="str">
+      <c r="N17" s="5" t="str">
         <f>TEXT(E17-D17,"h:mm:ss")</f>
         <v>0:01:50</v>
       </c>
-      <c r="O17" s="6" t="str">
+      <c r="O17" s="5" t="str">
         <f>TEXT(G17-F17,"h:mm:ss")</f>
         <v>0:04:25</v>
       </c>
     </row>
     <row r="18" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B18">
         <v>41.470292659999998</v>
@@ -1063,10 +1122,11 @@
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
     </row>
     <row r="19" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B19">
         <v>-76.920867490000006</v>
@@ -1089,10 +1149,11 @@
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
     </row>
     <row r="20" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B20">
         <v>638391.73060000001</v>
@@ -1115,10 +1176,11 @@
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
     </row>
     <row r="21" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B21">
         <v>25.458600000000001</v>
@@ -1141,11 +1203,12 @@
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
     </row>
     <row r="22" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A22" s="1"/>
       <c r="B22" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -1155,6 +1218,7 @@
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
     </row>
     <row r="23" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A23" s="1"/>
@@ -1179,63 +1243,68 @@
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
       <c r="M23" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="N23" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="O23" s="4" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="24" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B24" s="9">
+        <v>6</v>
+      </c>
+      <c r="B24" s="8">
         <v>44454.357407407406</v>
       </c>
-      <c r="C24" s="9">
+      <c r="C24" s="8">
         <v>44454.358969907407</v>
       </c>
-      <c r="D24" s="9">
+      <c r="D24" s="8">
         <v>44454.424363425926</v>
       </c>
-      <c r="E24" s="9">
+      <c r="E24" s="8">
         <v>44454.425752314812</v>
       </c>
-      <c r="F24" s="9">
+      <c r="F24" s="8">
         <v>44454.915162037039</v>
       </c>
-      <c r="G24" s="9">
+      <c r="G24" s="8">
         <v>44454.918171296296</v>
       </c>
       <c r="H24" s="1"/>
-      <c r="I24" s="7" t="str">
+      <c r="I24" s="6" t="str">
         <f>IF(B3-B24&lt;0,(TEXT(ABS(B3-B24),"h:mm:ss")),(_xlfn.CONCAT("-",TEXT(B3-B24,"h:mm:ss"))))</f>
         <v>-0:03:15</v>
       </c>
-      <c r="J24" s="7" t="str">
-        <f>IF(D3-D24&lt;0,(TEXT(ABS(D3-D24),"h:mm:ss")),(_xlfn.CONCAT("-",TEXT(C3-C24,"h:mm:ss"))))</f>
+      <c r="J24" s="6" t="str">
+        <f>IF(D3-D24&lt;0,(TEXT(ABS(D3-D24),"h:mm:ss")),(_xlfn.CONCAT("-",TEXT(D3-D24,"h:mm:ss"))))</f>
         <v>-0:03:25</v>
       </c>
-      <c r="M24" s="6" t="str">
+      <c r="K24" s="6" t="str">
+        <f>IF(F3-F24&lt;0,(TEXT(ABS(F3-F24),"h:mm:ss")),(_xlfn.CONCAT("-",TEXT(F3-F24,"h:mm:ss"))))</f>
+        <v>-0:03:20</v>
+      </c>
+      <c r="M24" s="5" t="str">
         <f>TEXT(C24-B24,"h:mm:ss")</f>
         <v>0:02:15</v>
       </c>
-      <c r="N24" s="6" t="str">
+      <c r="N24" s="5" t="str">
         <f>TEXT(E24-D24,"h:mm:ss")</f>
         <v>0:02:00</v>
       </c>
-      <c r="O24" s="6" t="str">
+      <c r="O24" s="5" t="str">
         <f>TEXT(G24-F24,"h:mm:ss")</f>
         <v>0:04:20</v>
       </c>
     </row>
     <row r="25" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B25">
         <v>41.876484210000001</v>
@@ -1261,7 +1330,7 @@
     </row>
     <row r="26" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B26">
         <v>-76.775293210000001</v>
@@ -1284,10 +1353,11 @@
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
     </row>
     <row r="27" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B27">
         <v>637696.72990000003</v>
@@ -1310,10 +1380,11 @@
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
     </row>
     <row r="28" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B28">
         <v>25.380199999999999</v>
@@ -1336,11 +1407,12 @@
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
     </row>
     <row r="29" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A29" s="1"/>
       <c r="B29" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -1350,8 +1422,9 @@
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
-    </row>
-    <row r="30" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="K29" s="1"/>
+    </row>
+    <row r="30" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A30" s="1"/>
       <c r="B30" t="s">
         <v>0</v>
@@ -1359,70 +1432,65 @@
       <c r="C30" t="s">
         <v>1</v>
       </c>
-      <c r="D30" t="s">
+      <c r="F30" t="s">
         <v>0</v>
       </c>
-      <c r="E30" t="s">
+      <c r="G30" t="s">
         <v>1</v>
       </c>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
       <c r="M30" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="N30" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="O30" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A31" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B31" s="9">
+        <v>6</v>
+      </c>
+      <c r="B31" s="8">
         <v>44454.378645833334</v>
       </c>
-      <c r="C31" s="9">
+      <c r="C31" s="8">
         <v>44454.382060185184</v>
       </c>
-      <c r="D31" s="9">
+      <c r="F31" s="8">
         <v>44454.937268518515</v>
       </c>
-      <c r="E31" s="9">
+      <c r="G31" s="8">
         <v>44454.940740740742</v>
       </c>
-      <c r="F31" s="5"/>
-      <c r="G31" s="5"/>
       <c r="H31" s="1"/>
-      <c r="I31" s="7" t="str">
+      <c r="I31" s="6" t="str">
         <f>IF(B3-B31&lt;0,(TEXT(ABS(B3-B31),"h:mm:ss")),(_xlfn.CONCAT("-",TEXT(B3-B31,"h:mm:ss"))))</f>
         <v>0:27:20</v>
       </c>
-      <c r="J31" s="7" t="str">
-        <f>IF(D3-D31&lt;0,(TEXT(ABS(D3-D31),"h:mm:ss")),(_xlfn.CONCAT("-",TEXT(C3-C31,"h:mm:ss"))))</f>
-        <v>12:15:10</v>
-      </c>
-      <c r="M31" s="6" t="str">
+      <c r="J31" s="9"/>
+      <c r="K31" s="6" t="str">
+        <f>IF(F3-F31&lt;0,(TEXT(ABS(F3-F31),"h:mm:ss")),(_xlfn.CONCAT("-",TEXT(F3-F31,"h:mm:ss"))))</f>
+        <v>0:28:30</v>
+      </c>
+      <c r="M31" s="5" t="str">
         <f>TEXT(C31-B31,"h:mm:ss")</f>
         <v>0:04:55</v>
       </c>
-      <c r="N31" s="6" t="str">
-        <f>TEXT(E31-D31,"h:mm:ss")</f>
+      <c r="N31" s="9"/>
+      <c r="O31" s="5" t="str">
+        <f>TEXT(G31-F31,"h:mm:ss")</f>
         <v>0:05:00</v>
       </c>
-      <c r="O31" s="6" t="str">
-        <f>TEXT(G31-F31,"h:mm:ss")</f>
-        <v>0:00:00</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="32" spans="1:15" ht="16" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B32">
         <v>35.009416139999999</v>
@@ -1430,21 +1498,19 @@
       <c r="C32">
         <v>52.84064798</v>
       </c>
-      <c r="D32">
+      <c r="F32">
         <v>52.481159400000003</v>
       </c>
-      <c r="E32">
+      <c r="G32">
         <v>34.317092930000001</v>
       </c>
-      <c r="F32" s="1"/>
-      <c r="G32" s="1"/>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
     </row>
     <row r="33" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B33">
         <v>-83.274116809999995</v>
@@ -1452,21 +1518,19 @@
       <c r="C33">
         <v>-89.698552269999993</v>
       </c>
-      <c r="D33">
+      <c r="F33">
         <v>-87.65444334</v>
       </c>
-      <c r="E33">
+      <c r="G33">
         <v>-94.104514589999994</v>
       </c>
-      <c r="F33" s="1"/>
-      <c r="G33" s="1"/>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
     </row>
     <row r="34" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B34">
         <v>636979.81969999999</v>
@@ -1474,21 +1538,19 @@
       <c r="C34">
         <v>638354.42570000002</v>
       </c>
-      <c r="D34">
+      <c r="F34">
         <v>634655.56400000001</v>
       </c>
-      <c r="E34">
+      <c r="G34">
         <v>631970.08169999998</v>
       </c>
-      <c r="F34" s="1"/>
-      <c r="G34" s="1"/>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
       <c r="J34" s="1"/>
     </row>
     <row r="35" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B35">
         <v>25.514299999999999</v>
@@ -1496,14 +1558,12 @@
       <c r="C35">
         <v>24.286000000000001</v>
       </c>
-      <c r="D35">
+      <c r="F35">
         <v>25.032699999999998</v>
       </c>
-      <c r="E35">
+      <c r="G35">
         <v>24.9434</v>
       </c>
-      <c r="F35" s="1"/>
-      <c r="G35" s="1"/>
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
       <c r="J35" s="1"/>
